--- a/58BattalionCEF.xlsx
+++ b/58BattalionCEF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFC6F65-9BE1-4195-A5CE-744D8705ECBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E5DBEE-B20D-485C-A832-ABF1DCF92A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="148">
   <si>
     <t>Location</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Fletre</t>
   </si>
   <si>
-    <t>Map Ref</t>
-  </si>
-  <si>
     <t>sheet27 Q.35.D.7.4</t>
   </si>
   <si>
@@ -306,18 +303,12 @@
     <t>Chalk Pits SE of Courcelette</t>
   </si>
   <si>
-    <t>Front Line Ready to Engage at zollern Redoubt</t>
-  </si>
-  <si>
     <t>57d.R.35.b.5.8</t>
   </si>
   <si>
     <t>Zollern Graben</t>
   </si>
   <si>
-    <t xml:space="preserve">Repositioned. Heavt shelling.  Bill Johnston Wounded. </t>
-  </si>
-  <si>
     <t>57d.R.29.b.8.5</t>
   </si>
   <si>
@@ -469,6 +460,24 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>MapRef</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>MBSPrefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Line Ready to Engage at zollern Redoubt. Bill Johnston Wounded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repositioned. Heavy shelling.  </t>
   </si>
 </sst>
 </file>
@@ -477,7 +486,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1009]d/mmm/yy;@"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -518,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,11 +842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1E1DDB-151E-4246-B5E7-C8D6B6A8244D}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,12 +859,12 @@
     <col min="6" max="6" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -869,8 +878,17 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5897</v>
       </c>
@@ -887,7 +905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5898</v>
       </c>
@@ -904,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5914</v>
       </c>
@@ -921,12 +939,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5915</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -938,18 +956,18 @@
         <v>2.6366499999999999</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5919</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>50.783437999999997</v>
@@ -958,18 +976,18 @@
         <v>2.6190959999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5920</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>50.774431999999997</v>
@@ -978,18 +996,18 @@
         <v>2.3172100000000002</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5921</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>50.800458999999996</v>
@@ -998,15 +1016,15 @@
         <v>2.7747760000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5927</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>50.774431999999997</v>
@@ -1015,18 +1033,18 @@
         <v>2.3172100000000002</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5928</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
         <v>50.848103999999999</v>
@@ -1035,18 +1053,18 @@
         <v>2.7712029999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5930</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>50.835514000000003</v>
@@ -1055,18 +1073,18 @@
         <v>2.7826719999999998</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5933</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2">
         <v>50.833523999999997</v>
@@ -1075,18 +1093,18 @@
         <v>2.948305</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5935</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="2">
         <v>50.839736000000002</v>
@@ -1095,18 +1113,18 @@
         <v>2.952013</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5941</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="2">
         <v>50.837007999999997</v>
@@ -1115,18 +1133,18 @@
         <v>2.8021020000000001</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5944</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="2">
         <v>50.839736000000002</v>
@@ -1135,18 +1153,18 @@
         <v>2.952013</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5949</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2">
         <v>50.847299</v>
@@ -1155,7 +1173,7 @@
         <v>2.7725300000000002</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,10 +1181,10 @@
         <v>5956</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2">
         <v>50.836266999999999</v>
@@ -1175,7 +1193,7 @@
         <v>2.9371839999999998</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,10 +1201,10 @@
         <v>5964</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2">
         <v>50.843007999999998</v>
@@ -1195,7 +1213,7 @@
         <v>2.950615</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,10 +1221,10 @@
         <v>5973</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2">
         <v>50.835514000000003</v>
@@ -1215,7 +1233,7 @@
         <v>2.7826719999999998</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,10 +1241,10 @@
         <v>5988</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
       </c>
       <c r="D20" s="2">
         <v>50.839736000000002</v>
@@ -1235,7 +1253,7 @@
         <v>2.952013</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,10 +1261,10 @@
         <v>5997</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2">
         <v>50.844563000000001</v>
@@ -1255,7 +1273,7 @@
         <v>2.7830140000000001</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,10 +1281,10 @@
         <v>5998</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>50.837705999999997</v>
@@ -1275,7 +1293,7 @@
         <v>2.855324</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,10 +1301,10 @@
         <v>5999</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
         <v>50.836494999999999</v>
@@ -1295,7 +1313,7 @@
         <v>2.9222429999999999</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,10 +1321,10 @@
         <v>6006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>50.837705999999997</v>
@@ -1315,7 +1333,7 @@
         <v>2.855324</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,10 +1341,10 @@
         <v>6007</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2">
         <v>50.836494999999999</v>
@@ -1335,7 +1353,7 @@
         <v>2.9222429999999999</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,10 +1361,10 @@
         <v>6009</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>50.836250999999997</v>
@@ -1355,7 +1373,7 @@
         <v>2.935886</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,10 +1381,10 @@
         <v>6010</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>50.837705999999997</v>
@@ -1375,7 +1393,7 @@
         <v>2.855324</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,10 +1401,10 @@
         <v>6015</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2">
         <v>50.835514000000003</v>
@@ -1395,7 +1413,7 @@
         <v>2.7826719999999998</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,10 +1421,10 @@
         <v>6026</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2">
         <v>50.836494999999999</v>
@@ -1415,7 +1433,7 @@
         <v>2.9222429999999999</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,10 +1441,10 @@
         <v>6030</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
         <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
       </c>
       <c r="D30" s="2">
         <v>50.839736000000002</v>
@@ -1435,7 +1453,7 @@
         <v>2.952013</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,10 +1461,10 @@
         <v>6035</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2">
         <v>50.836494999999999</v>
@@ -1455,7 +1473,7 @@
         <v>2.9222429999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,10 +1481,10 @@
         <v>6039</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2">
         <v>50.811245</v>
@@ -1475,7 +1493,7 @@
         <v>2.5817109999999999</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,10 +1501,10 @@
         <v>6052</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="2">
         <v>50.836494999999999</v>
@@ -1495,7 +1513,7 @@
         <v>2.9222429999999999</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1503,10 +1521,10 @@
         <v>6053</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
         <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
       </c>
       <c r="D34" s="2">
         <v>50.839736000000002</v>
@@ -1515,7 +1533,7 @@
         <v>2.952013</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,10 +1541,10 @@
         <v>6061</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2">
         <v>50.845517999999998</v>
@@ -1535,7 +1553,7 @@
         <v>2.8875440000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,10 +1561,10 @@
         <v>6062</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>50.837705999999997</v>
@@ -1555,7 +1573,7 @@
         <v>2.855324</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1563,10 +1581,10 @@
         <v>6073</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="2">
         <v>50.826846000000003</v>
@@ -1575,7 +1593,7 @@
         <v>2.9400689999999998</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,10 +1601,10 @@
         <v>6077</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="2">
         <v>50.836494999999999</v>
@@ -1595,7 +1613,7 @@
         <v>2.9222429999999999</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1603,7 +1621,7 @@
         <v>6080</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2">
         <v>50.852677999999997</v>
@@ -1612,7 +1630,7 @@
         <v>2.7323800999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,10 +1638,10 @@
         <v>6084</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="2">
         <v>50.801354000000003</v>
@@ -1632,7 +1650,7 @@
         <v>2.6073949999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1640,10 +1658,10 @@
         <v>6095</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" t="s">
-        <v>70</v>
       </c>
       <c r="D41" s="2">
         <v>50.738844200000003</v>
@@ -1652,7 +1670,7 @@
         <v>2.3002050999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,7 +1678,7 @@
         <v>6096</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2">
         <v>50.236600500000002</v>
@@ -1669,7 +1687,7 @@
         <v>2.0823385999999999</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1677,7 +1695,7 @@
         <v>6097</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2">
         <v>50.155893300000002</v>
@@ -1686,7 +1704,7 @@
         <v>1.9529609999999999</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,7 +1712,7 @@
         <v>6098</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="2">
         <v>50.049863700000003</v>
@@ -1703,7 +1721,7 @@
         <v>2.1956582</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,7 +1729,7 @@
         <v>6099</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2">
         <v>50.065087800000001</v>
@@ -1720,7 +1738,7 @@
         <v>2.3096019999999999</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,7 +1746,7 @@
         <v>6100</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="2">
         <v>50.027022899999999</v>
@@ -1737,7 +1755,7 @@
         <v>2.4045782999999998</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,7 +1763,7 @@
         <v>6101</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="2">
         <v>50.020926799999998</v>
@@ -1754,7 +1772,7 @@
         <v>2.4372524000000002</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,7 +1780,7 @@
         <v>6102</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="2">
         <v>50.012915300000003</v>
@@ -1771,7 +1789,7 @@
         <v>2.5377833000000001</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,10 +1797,10 @@
         <v>6103</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
         <v>85</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
       </c>
       <c r="D49" s="2">
         <v>50.017994999999999</v>
@@ -1791,7 +1809,7 @@
         <v>2.6815349999999998</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,10 +1817,10 @@
         <v>6104</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" s="2">
         <v>50.054834999999997</v>
@@ -1811,7 +1829,7 @@
         <v>2.726871</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,10 +1837,10 @@
         <v>6105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2">
         <v>50.051316</v>
@@ -1831,7 +1849,7 @@
         <v>2.7397649999999998</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,10 +1857,10 @@
         <v>6106</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D52" s="2">
         <v>50.058331000000003</v>
@@ -1851,7 +1869,7 @@
         <v>2.7414429999999999</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,10 +1877,10 @@
         <v>6108</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D53" s="2">
         <v>50.058204000000003</v>
@@ -1871,7 +1889,7 @@
         <v>2.7325050000000002</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,10 +1897,10 @@
         <v>6110</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D54" s="2">
         <v>50.008243</v>
@@ -1891,7 +1909,7 @@
         <v>2.6340170000000001</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,7 +1917,7 @@
         <v>6112</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2">
         <v>50.014568799999999</v>
@@ -1908,7 +1926,7 @@
         <v>2.4524854</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,7 +1934,7 @@
         <v>6113</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D56" s="2">
         <v>50.027022899999999</v>
@@ -1925,7 +1943,7 @@
         <v>2.4045782999999998</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,7 +1951,7 @@
         <v>6116</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2">
         <v>50.020926799999998</v>
@@ -1942,7 +1960,7 @@
         <v>2.4372524000000002</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1950,7 +1968,7 @@
         <v>6117</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D58" s="2">
         <v>49.964725100000003</v>
@@ -1959,7 +1977,7 @@
         <v>2.4427335000000001</v>
       </c>
       <c r="F58" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,10 +1985,10 @@
         <v>6120</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D59" s="2">
         <v>50.008243</v>
@@ -1979,7 +1997,7 @@
         <v>2.6340170000000001</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1987,10 +2005,10 @@
         <v>6121</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D60" s="2">
         <v>50.068275999999997</v>
@@ -1999,7 +2017,7 @@
         <v>2.7468569999999999</v>
       </c>
       <c r="F60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,10 +2025,10 @@
         <v>6123</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D61" s="2">
         <v>50.002470000000002</v>
@@ -2019,7 +2037,7 @@
         <v>2.632949</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,10 +2045,10 @@
         <v>6125</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D62" s="2">
         <v>50.068756999999998</v>
@@ -2039,7 +2057,7 @@
         <v>2.7518959999999999</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2047,7 +2065,7 @@
         <v>6126</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D63" s="2">
         <v>50.06897</v>
@@ -2056,7 +2074,7 @@
         <v>2.7500399999999998</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,10 +2082,10 @@
         <v>6127</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D64" s="2">
         <v>50.002470000000002</v>
@@ -2076,7 +2094,7 @@
         <v>2.632949</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,10 +2102,10 @@
         <v>6128</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D65" s="2">
         <v>50.008243</v>
@@ -2096,7 +2114,7 @@
         <v>2.6340170000000001</v>
       </c>
       <c r="F65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,7 +2122,7 @@
         <v>6130</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D66" s="2">
         <v>50.013308100000003</v>
@@ -2113,7 +2131,7 @@
         <v>2.5529988000000001</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,7 +2139,7 @@
         <v>6131</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2">
         <v>50.065087800000001</v>
@@ -2130,7 +2148,7 @@
         <v>2.3096019999999999</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,7 +2156,7 @@
         <v>6132</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D68" s="2">
         <v>50.1334546</v>
@@ -2147,7 +2165,7 @@
         <v>2.1087720000000001</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,7 +2173,7 @@
         <v>6134</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D69" s="2">
         <v>50.177869100000002</v>
@@ -2164,7 +2182,7 @@
         <v>2.1270354</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,7 +2190,7 @@
         <v>6138</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D70" s="2">
         <v>50.258242500000001</v>
@@ -2181,7 +2199,7 @@
         <v>2.2215560999999999</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,7 +2207,7 @@
         <v>6139</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D71" s="2">
         <v>50.295148300000001</v>
@@ -2198,7 +2216,7 @@
         <v>2.3675245999999999</v>
       </c>
       <c r="F71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2206,7 +2224,7 @@
         <v>6140</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D72" s="2">
         <v>50.331783899999998</v>
@@ -2215,7 +2233,7 @@
         <v>2.4798255</v>
       </c>
       <c r="F72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2223,7 +2241,7 @@
         <v>6141</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D73" s="2">
         <v>50.374150800000002</v>
@@ -2232,7 +2250,7 @@
         <v>2.5224491000000002</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2240,7 +2258,7 @@
         <v>6143</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D74" s="2">
         <v>50.338017399999998</v>
@@ -2249,7 +2267,7 @@
         <v>2.6865275999999998</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,7 +2275,7 @@
         <v>6147</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D75" s="2">
         <v>50.409852000000001</v>
@@ -2266,7 +2284,7 @@
         <v>2.7143480000000002</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2274,7 +2292,7 @@
         <v>6148</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D76" s="2">
         <v>50.357965</v>
@@ -2283,7 +2301,7 @@
         <v>2.7787250000000001</v>
       </c>
       <c r="F76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,7 +2309,7 @@
         <v>6155</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D77" s="2">
         <v>50.338017399999998</v>
@@ -2300,7 +2318,7 @@
         <v>2.6865275999999998</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2308,7 +2326,7 @@
         <v>6161</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D78" s="2">
         <v>50.357965</v>
@@ -2317,7 +2335,7 @@
         <v>2.7787250000000001</v>
       </c>
       <c r="F78" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,7 +2343,7 @@
         <v>6165</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D79" s="2">
         <v>50.338017399999998</v>
@@ -2334,7 +2352,7 @@
         <v>2.6865275999999998</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2342,7 +2360,7 @@
         <v>6173</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D80" s="2">
         <v>50.357965</v>
@@ -2351,7 +2369,7 @@
         <v>2.7787250000000001</v>
       </c>
       <c r="F80" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,7 +2377,7 @@
         <v>6179</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D81" s="2">
         <v>50.338017399999998</v>
@@ -2368,7 +2386,7 @@
         <v>2.6865275999999998</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
